--- a/Result&Discussion.xlsx
+++ b/Result&Discussion.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01190814_pw_edu_pl/Documents/RWTH_study/S_Computational Intelligence in Engineering/CIE-project-B/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DB114E441178AC67DF43F8ED0FBD2683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376020DD-C90C-4583-9F2E-F6154A26BD7C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,97 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>Learning Rate = 0.00002</t>
+  </si>
+  <si>
+    <t>epochs = 50</t>
+  </si>
+  <si>
+    <t>batch_size = 64</t>
+  </si>
+  <si>
+    <t>Modal</t>
+  </si>
+  <si>
+    <t>FCNN</t>
+  </si>
+  <si>
+    <t># Input Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Input(shape=(x_train.shape[1],))) </t>
+  </si>
+  <si>
+    <t># Hidden Layer</t>
+  </si>
+  <si>
+    <t>model.add(Dense(256, activation='relu'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(128, activation='relu'))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(64, activation='relu'))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(32, activation='relu'))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(16, activation='relu'))  </t>
+  </si>
+  <si>
+    <t># Output Layer</t>
+  </si>
+  <si>
+    <t>model.add(Dense(1, activation='linear'))</t>
+  </si>
+  <si>
+    <t>Loss of last epochs = 4.5107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCNN </t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>Learning Rate = 0.0001</t>
+  </si>
+  <si>
+    <t>epochs = 15</t>
+  </si>
+  <si>
+    <t>Loss of last epochs = 4.5453</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,10 +128,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +169,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>159555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFD4494-F630-0B9E-B654-4C31C8B05E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114301" y="213361"/>
+          <a:ext cx="3253739" cy="2506514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FE84F1-BBD0-DD82-1BCB-8CC10CFBEAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756660" y="403860"/>
+          <a:ext cx="3101340" cy="2296311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +526,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result&Discussion.xlsx
+++ b/Result&Discussion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01190814_pw_edu_pl/Documents/RWTH_study/S_Computational Intelligence in Engineering/CIE-project-B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_AD4DB114E441178AC67DF43F8ED0FBD2683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376020DD-C90C-4583-9F2E-F6154A26BD7C}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4DB114E441178AC67DF43F8ED0FBD2683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691EE9FF-57F9-4C4E-AE16-76A3E0BB9BF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>Learning Rate = 0.00002</t>
   </si>
@@ -36,12 +36,6 @@
     <t>batch_size = 64</t>
   </si>
   <si>
-    <t>Modal</t>
-  </si>
-  <si>
-    <t>FCNN</t>
-  </si>
-  <si>
     <t># Input Layer</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>model.add(Dense(1, activation='linear'))</t>
   </si>
   <si>
-    <t>Loss of last epochs = 4.5107</t>
-  </si>
-  <si>
     <t xml:space="preserve">FCNN </t>
   </si>
   <si>
@@ -84,17 +75,23 @@
     <t>Learning Rate = 0.0001</t>
   </si>
   <si>
-    <t>epochs = 15</t>
-  </si>
-  <si>
-    <t>Loss of last epochs = 4.5453</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loss of last epochs </t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>batch_size = 32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +112,27 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,11 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,23 +196,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83821</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159555</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556261</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFD4494-F630-0B9E-B654-4C31C8B05E53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8313A4E8-328B-B959-5E74-43D8BEE03108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -207,8 +228,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114301" y="213361"/>
-          <a:ext cx="3253739" cy="2506514"/>
+          <a:off x="3131821" y="419100"/>
+          <a:ext cx="2910840" cy="2301499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -219,23 +240,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546384</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>139851</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FE84F1-BBD0-DD82-1BCB-8CC10CFBEAE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AA020F-D16B-9E4D-3DC5-DABC70A8F61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="1220"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789420" y="365761"/>
+          <a:ext cx="2900964" cy="2240280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10EE0EE0-847E-CD60-125C-86C5B1436BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -244,15 +308,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3756660" y="403860"/>
-          <a:ext cx="3101340" cy="2296311"/>
+          <a:off x="60960" y="396240"/>
+          <a:ext cx="2960077" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>93998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F5B2B1-1751-4A02-52A5-F7510954E228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="459758"/>
+          <a:ext cx="2905737" cy="2214862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -262,6 +370,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,148 +639,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="K22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K23" t="s">
         <v>7</v>
       </c>
-      <c r="G23" t="s">
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
         <v>8</v>
       </c>
-      <c r="G24" t="s">
+      <c r="P24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
         <v>9</v>
       </c>
-      <c r="G25" t="s">
+      <c r="P25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
+      <c r="P26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>20</v>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="P30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>4.4898999999999996</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>4.5541999999999998</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>4.5084</v>
+      </c>
+      <c r="P31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31">
+        <v>4.5598000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>4.5510999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>4.5533999999999999</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>4.5533999999999999</v>
+      </c>
+      <c r="P32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32">
+        <v>4.5545</v>
       </c>
     </row>
   </sheetData>

--- a/Result&Discussion.xlsx
+++ b/Result&Discussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wutwaw-my.sharepoint.com/personal/01190814_pw_edu_pl/Documents/RWTH_study/S_Computational Intelligence in Engineering/CIE-project-B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_AD4DB114E441178AC67DF43F8ED0FBD2683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691EE9FF-57F9-4C4E-AE16-76A3E0BB9BF0}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_AD4DB114E441178AC67DF43F8ED0FBD2683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56ACFD4-7958-492A-BADB-AB699EDF9082}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11124" yWindow="0" windowWidth="12012" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Learning Rate = 0.00002</t>
   </si>
@@ -85,13 +85,28 @@
   </si>
   <si>
     <t>batch_size = 32</t>
+  </si>
+  <si>
+    <t>model.add(Dense(256, activation='softplus'))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(128, activation='softplus'))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(64, activation='softplus'))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(32, activation='softplus'))  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.add(Dense(16, activation='softplus'))  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +152,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -175,6 +197,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,6 +384,138 @@
         <a:xfrm>
           <a:off x="9258300" y="459758"/>
           <a:ext cx="2905737" cy="2214862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>576659</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979FC6DF-BE52-529B-01FE-DD4EDD01273C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268200" y="373349"/>
+          <a:ext cx="2938859" cy="2240312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>526829</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{849B367D-2104-1A17-7227-B4B0BF709FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12252960" y="5897880"/>
+          <a:ext cx="2904269" cy="2270760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>60259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>543935</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B29BDB-3467-5E52-A7D8-5B6BFC223E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268201" y="8289859"/>
+          <a:ext cx="2906134" cy="2271461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,6 +806,7 @@
     <col min="10" max="10" width="8.88671875" style="3"/>
     <col min="15" max="15" width="8.88671875" style="3"/>
     <col min="20" max="20" width="8.88671875" style="3"/>
+    <col min="25" max="25" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -663,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -671,13 +827,16 @@
         <v>15</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -690,8 +849,11 @@
       <c r="P18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,8 +866,11 @@
       <c r="P19" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -718,8 +883,11 @@
       <c r="P20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -732,8 +900,11 @@
       <c r="P21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -746,8 +917,11 @@
       <c r="P22" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -760,8 +934,11 @@
       <c r="P23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U23" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -774,8 +951,11 @@
       <c r="P24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -788,8 +968,11 @@
       <c r="P25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -802,8 +985,11 @@
       <c r="P26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -813,8 +999,11 @@
       <c r="P27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -827,8 +1016,11 @@
       <c r="P28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -841,8 +1033,11 @@
       <c r="P29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -858,8 +1053,12 @@
         <v>17</v>
       </c>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -884,8 +1083,14 @@
       <c r="Q31">
         <v>4.5598000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="U31" t="s">
+        <v>18</v>
+      </c>
+      <c r="V31">
+        <v>4.5376000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -909,6 +1114,28 @@
       </c>
       <c r="Q32">
         <v>4.5545</v>
+      </c>
+      <c r="U32" t="s">
+        <v>16</v>
+      </c>
+      <c r="V32">
+        <v>4.5579999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="21:22" x14ac:dyDescent="0.3">
+      <c r="U59" t="s">
+        <v>18</v>
+      </c>
+      <c r="V59">
+        <v>4.8731</v>
+      </c>
+    </row>
+    <row r="60" spans="21:22" x14ac:dyDescent="0.3">
+      <c r="U60" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60">
+        <v>4.9038000000000004</v>
       </c>
     </row>
   </sheetData>
